--- a/pachen/New Microsoft Excel Worksheet.xlsx
+++ b/pachen/New Microsoft Excel Worksheet.xlsx
@@ -1,25 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\GitHub\fizica-plasmei\pachen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8E02A-D09D-4453-AEFC-A842DE0D17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+  <si>
+    <t>Gr1</t>
+  </si>
+  <si>
+    <t>Ub</t>
+  </si>
+  <si>
+    <t>Ud</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>Gr3</t>
+  </si>
+  <si>
+    <t>Gr4</t>
+  </si>
+  <si>
+    <t>Gr2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +87,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +192,4107 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.757000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABC0-4841-8930-58F0628F44AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.175000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.757000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABC0-4841-8930-58F0628F44AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1873996064"/>
+        <c:axId val="1873972768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1873996064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1873972768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1873972768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1873996064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-574A-412F-9E18-A2EA77593BD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-574A-412F-9E18-A2EA77593BD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1264157392"/>
+        <c:axId val="1264161968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1264157392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264161968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1264161968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264157392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.419999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1953-4522-8F62-516F628E8C8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.419999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1953-4522-8F62-516F628E8C8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1255739360"/>
+        <c:axId val="1255760992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1255739360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255760992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1255760992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255739360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72B8-4C7B-BDC1-AC19F437E4A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$3:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72B8-4C7B-BDC1-AC19F437E4A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1418702960"/>
+        <c:axId val="1418711696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1418702960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418711696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1418711696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418702960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE08A79D-E44D-4ACF-AFF4-735FCA961B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B95A23B-C305-4978-88CB-3D8C41D91FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D33E29E-34D8-4DBE-A981-8A261BDCE8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA39EF1-A345-41BD-BC3C-926EA9C6B31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +4557,450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C3" s="8">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9">
+        <v>19.175000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1193</v>
+      </c>
+      <c r="F3" s="10">
+        <v>590</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="J3" s="11">
+        <v>45</v>
+      </c>
+      <c r="K3" s="8">
+        <f>I3*J3</f>
+        <v>32.85</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1259</v>
+      </c>
+      <c r="M3" s="7">
+        <v>487</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>53</v>
+      </c>
+      <c r="R3" s="1">
+        <f>P3*Q3</f>
+        <v>38.159999999999997</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1369</v>
+      </c>
+      <c r="T3" s="2">
+        <v>471</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="X3" s="3">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>W3*X3</f>
+        <v>37.44</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1157</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="7">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="C4" s="11">
+        <v>73</v>
+      </c>
+      <c r="D4" s="9">
+        <v>50.442999999999998</v>
+      </c>
+      <c r="E4" s="11">
+        <v>854</v>
+      </c>
+      <c r="F4" s="7">
+        <v>534</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="J4" s="11">
+        <v>99</v>
+      </c>
+      <c r="K4" s="8">
+        <f>I4*J4</f>
+        <v>62.37</v>
+      </c>
+      <c r="L4" s="11">
+        <v>735</v>
+      </c>
+      <c r="M4" s="7">
+        <v>521</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>115</v>
+      </c>
+      <c r="R4" s="1">
+        <f>P4*Q4</f>
+        <v>65.55</v>
+      </c>
+      <c r="S4" s="3">
+        <v>750</v>
+      </c>
+      <c r="T4" s="2">
+        <v>512</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="X4" s="3">
+        <v>105</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>W4*X4</f>
+        <v>66.150000000000006</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>696</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C5" s="11">
+        <v>125</v>
+      </c>
+      <c r="D5" s="9">
+        <v>71.25</v>
+      </c>
+      <c r="E5" s="11">
+        <v>965</v>
+      </c>
+      <c r="F5" s="7">
+        <v>516</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="J5" s="11">
+        <v>160</v>
+      </c>
+      <c r="K5" s="8">
+        <f>I5*J5</f>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="L5" s="11">
+        <v>803</v>
+      </c>
+      <c r="M5" s="7">
+        <v>505</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>175</v>
+      </c>
+      <c r="R5" s="1">
+        <f>P5*Q5</f>
+        <v>80.5</v>
+      </c>
+      <c r="S5" s="3">
+        <v>966</v>
+      </c>
+      <c r="T5" s="2">
+        <v>505</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="X5" s="3">
+        <v>161</v>
+      </c>
+      <c r="Y5" s="1">
+        <f>W5*X5</f>
+        <v>82.11</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>765</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="7">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C6" s="11">
+        <v>175</v>
+      </c>
+      <c r="D6" s="9">
+        <v>83.825000000000003</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1007</v>
+      </c>
+      <c r="F6" s="7">
+        <v>501</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="J6" s="11">
+        <v>216</v>
+      </c>
+      <c r="K6" s="8">
+        <f>I6*J6</f>
+        <v>84.240000000000009</v>
+      </c>
+      <c r="L6" s="11">
+        <v>969</v>
+      </c>
+      <c r="M6" s="7">
+        <v>498</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>232</v>
+      </c>
+      <c r="R6" s="1">
+        <f>P6*Q6</f>
+        <v>83.52</v>
+      </c>
+      <c r="S6" s="3">
+        <v>995</v>
+      </c>
+      <c r="T6" s="2">
+        <v>502</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="X6" s="3">
+        <v>215</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>W6*X6</f>
+        <v>86</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>995</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="C7" s="11">
+        <v>227</v>
+      </c>
+      <c r="D7" s="9">
+        <v>88.757000000000005</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1043</v>
+      </c>
+      <c r="F7" s="7">
+        <v>502</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="8">
+        <v>285</v>
+      </c>
+      <c r="K7" s="8">
+        <f>I7*J7</f>
+        <v>85.5</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1037</v>
+      </c>
+      <c r="M7" s="10">
+        <v>530</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>298</v>
+      </c>
+      <c r="R7" s="1">
+        <f>P7*Q7</f>
+        <v>86.419999999999987</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1064</v>
+      </c>
+      <c r="T7" s="4">
+        <v>525</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="X7" s="1">
+        <v>279</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>W7*X7</f>
+        <v>86.49</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1091</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f>AVERAGE(D3,K3,R3,Y3)</f>
+        <v>31.90625</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(E3,L3,S3,Z3)</f>
+        <v>1244.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G31" si="0">AVERAGE(F3,M3,T3,AA3)</f>
+        <v>516.25</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f>AVERAGE(D4,K4,R4,Y4)</f>
+        <v>61.128250000000001</v>
+      </c>
+      <c r="F28">
+        <f>AVERAGE(E4,L4,S4,Z4)</f>
+        <v>758.75</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f>AVERAGE(D5,K5,R5,Y5)</f>
+        <v>78.864999999999995</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(E5,L5,S5,Z5)</f>
+        <v>874.75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f>AVERAGE(D6,K6,R6,Y6)</f>
+        <v>84.396249999999995</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(E6,L6,S6,Z6)</f>
+        <v>991.5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>496.5</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f>AVERAGE(D7,K7,R7,Y7)</f>
+        <v>86.791750000000008</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(E7,L7,S7,Z7)</f>
+        <v>1058.75</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pachen/New Microsoft Excel Worksheet.xlsx
+++ b/pachen/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Documents\GitHub\fizica-plasmei\pachen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8E02A-D09D-4453-AEFC-A842DE0D17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FCB38B-CA4C-417F-8CCF-FE7325E92E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="5850" windowWidth="25455" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4560,8 +4560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4928,73 +4928,113 @@
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E27">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="9">
+        <f>AVERAGE(B3,I3,P3,W3)</f>
+        <v>0.73424999999999985</v>
+      </c>
+      <c r="D27" s="9">
+        <f>AVERAGE(C3,J3,Q3,X3)</f>
+        <v>43.75</v>
+      </c>
+      <c r="E27" s="9">
         <f>AVERAGE(D3,K3,R3,Y3)</f>
         <v>31.90625</v>
       </c>
       <c r="F27">
-        <f>AVERAGE(E3,L3,S3,Z3)</f>
+        <f t="shared" ref="E27:F31" si="0">AVERAGE(E3,L3,S3,Z3)</f>
         <v>1244.5</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G31" si="0">AVERAGE(F3,M3,T3,AA3)</f>
+        <f t="shared" ref="G27:G31" si="1">AVERAGE(F3,M3,T3,AA3)</f>
         <v>516.25</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="9">
+        <f>AVERAGE(B4,I4,P4,W4)</f>
+        <v>0.63024999999999998</v>
+      </c>
+      <c r="D28" s="9">
+        <f>AVERAGE(C4,J4,Q4,X4)</f>
+        <v>98</v>
+      </c>
       <c r="E28">
-        <f>AVERAGE(D4,K4,R4,Y4)</f>
+        <f t="shared" si="0"/>
         <v>61.128250000000001</v>
       </c>
       <c r="F28">
-        <f>AVERAGE(E4,L4,S4,Z4)</f>
+        <f t="shared" si="0"/>
         <v>758.75</v>
       </c>
       <c r="G28">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="9">
+        <f>AVERAGE(B5,I5,P5,W5)</f>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="D29" s="9">
+        <f>AVERAGE(C5,J5,Q5,X5)</f>
+        <v>155.25</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>519</v>
+        <v>78.864999999999995</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>874.75</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>508</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E29">
-        <f>AVERAGE(D5,K5,R5,Y5)</f>
-        <v>78.864999999999995</v>
-      </c>
-      <c r="F29">
-        <f>AVERAGE(E5,L5,S5,Z5)</f>
-        <v>874.75</v>
-      </c>
-      <c r="G29">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="9">
+        <f>AVERAGE(B6,I6,P6,W6)</f>
+        <v>0.40725</v>
+      </c>
+      <c r="D30" s="9">
+        <f>AVERAGE(C6,J6,Q6,X6)</f>
+        <v>209.5</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>508</v>
+        <v>84.396249999999995</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>991.5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>496.5</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E30">
-        <f>AVERAGE(D6,K6,R6,Y6)</f>
-        <v>84.396249999999995</v>
-      </c>
-      <c r="F30">
-        <f>AVERAGE(E6,L6,S6,Z6)</f>
-        <v>991.5</v>
-      </c>
-      <c r="G30">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" s="9">
+        <f>AVERAGE(B7,I7,P7,W7)</f>
+        <v>0.32275000000000004</v>
+      </c>
+      <c r="D31" s="9">
+        <f>AVERAGE(C7,J7,Q7,X7)</f>
+        <v>272.25</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>496.5</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E31">
-        <f>AVERAGE(D7,K7,R7,Y7)</f>
         <v>86.791750000000008</v>
       </c>
       <c r="F31">
-        <f>AVERAGE(E7,L7,S7,Z7)</f>
+        <f t="shared" si="0"/>
         <v>1058.75</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>513</v>
       </c>
     </row>
